--- a/QuantumZenith Securitites TestCaseReport 2022.xlsx
+++ b/QuantumZenith Securitites TestCaseReport 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\git folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67DA4AE5-A361-489B-ACCC-2AC6E46ED073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F695371-1E1C-4EDD-8476-093F3B542397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{413DAD52-AAF6-49D6-99F2-9801D36C49EC}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -144,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1043,26 +1032,26 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" customWidth="1"/>
-    <col min="11" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="1.1796875" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="1.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="32.26953125" customWidth="1"/>
+    <col min="11" max="1025" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1"/>
-    <row r="2" spans="1:12" ht="15.95" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1071,7 @@
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
     </row>
-    <row r="3" spans="1:12" ht="15.95" thickBot="1">
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1087,7 @@
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
     </row>
-    <row r="4" spans="1:12" ht="15.95" thickBot="1">
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1103,7 @@
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1119,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1133,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:12" ht="15.6">
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1147,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6">
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1161,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1182,7 +1171,7 @@
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
     </row>
-    <row r="10" spans="1:12" ht="29.45" thickBot="1">
+    <row r="10" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1195,7 +1184,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="29.45" thickBot="1">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -1234,7 +1223,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -1250,7 +1239,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -1266,7 +1255,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -1282,7 +1271,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>5</v>
       </c>
@@ -1298,7 +1287,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -1314,7 +1303,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1327,72 +1316,77 @@
       <c r="E18" s="22"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickTop="1">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:8">
+    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="25"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="26"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="26"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="26"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="26"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="27"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="27"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="28"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="27"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="29"/>
     </row>

--- a/QuantumZenith Securitites TestCaseReport 2022.xlsx
+++ b/QuantumZenith Securitites TestCaseReport 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\git folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F695371-1E1C-4EDD-8476-093F3B542397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC1305-AA31-4D2C-86AD-AE21880598B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{413DAD52-AAF6-49D6-99F2-9801D36C49EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Payment</t>
+  </si>
+  <si>
+    <t>Payments</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>26</v>
